--- a/assets/campaña.xlsx
+++ b/assets/campaña.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703CBAC-7236-46FD-B916-499F2B02092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF20F166-B179-4643-912A-47979EC330E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>teléfono</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>monto aprobado</t>
+    <t>Gustavo</t>
   </si>
   <si>
-    <t>Gustavo</t>
+    <t>montoCredito</t>
+  </si>
+  <si>
+    <t>telefono</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,10 +433,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -447,7 +447,7 @@
         <v>5491161405589</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>350000</v>

--- a/assets/campaña.xlsx
+++ b/assets/campaña.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF20F166-B179-4643-912A-47979EC330E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C88A3-D7DC-41ED-A0B0-EB5BD1BB4631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nombre</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>telefono</t>
+  </si>
+  <si>
+    <t>Gustavo Glunz</t>
   </si>
 </sst>
 </file>
@@ -420,15 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1318A958-C3E1-42A4-89DB-AF881F24FE26}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -453,6 +457,17 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>5491159911742</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/campaña.xlsx
+++ b/assets/campaña.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C88A3-D7DC-41ED-A0B0-EB5BD1BB4631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F347F66-38ED-4442-BE13-3C6A73A7A214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nombre</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>telefono</t>
-  </si>
-  <si>
-    <t>Gustavo Glunz</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,15 +455,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>5491159911742</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1500000</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
